--- a/QuizAvgGrades.xlsx
+++ b/QuizAvgGrades.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>نام آزمون</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>آزمون 2</t>
+  </si>
+  <si>
+    <t>تست 3</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,7 +90,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -95,7 +98,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
